--- a/phone_coverage_12.xlsx
+++ b/phone_coverage_12.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
-    <sheet name="coverage" sheetId="1" r:id="rId2"/>
-    <sheet name="pediatric" sheetId="2" r:id="rId3"/>
-    <sheet name="reason1" sheetId="3" r:id="rId4"/>
-    <sheet name="reason2" sheetId="4" r:id="rId5"/>
+    <sheet name="dataprov_12" sheetId="7" r:id="rId2"/>
+    <sheet name="enrolled_pct" sheetId="1" r:id="rId3"/>
+    <sheet name="weeks" sheetId="8" r:id="rId4"/>
+    <sheet name="pediatric" sheetId="2" r:id="rId5"/>
     <sheet name="main" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>province</t>
   </si>
@@ -73,42 +73,9 @@
     <t>pct</t>
   </si>
   <si>
-    <t>razoes</t>
-  </si>
-  <si>
-    <t>Vergonha</t>
-  </si>
-  <si>
-    <t>Falta de revelação do Seroestado</t>
-  </si>
-  <si>
-    <t>É aderente não precisa de lembretes</t>
-  </si>
-  <si>
-    <t>Falta de espaço privado para receber VMM</t>
-  </si>
-  <si>
-    <t>Não entendeu a importância do seguimento por chamada telefónica durante esta fase da pandemia do COVID-19</t>
-  </si>
-  <si>
-    <t>Medo, o parceiro não deixa atender chamadas</t>
-  </si>
-  <si>
-    <t>Partilha telefone e ão acha seguro receber VMM</t>
-  </si>
-  <si>
-    <t>MM não explicou bem a importancia de VMM</t>
-  </si>
-  <si>
-    <t>A chamada leva muito tempo</t>
-  </si>
-  <si>
     <t>reason</t>
   </si>
   <si>
-    <t>Só tem tempo a noite i«ou fim de semana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre consent </t>
   </si>
   <si>
@@ -124,12 +91,6 @@
     <t>&gt;3 support call</t>
   </si>
   <si>
-    <t>Só tem tempo a noite ou fim de semana</t>
-  </si>
-  <si>
-    <t>Não entendeu a importância do seguimento virtual</t>
-  </si>
-  <si>
     <t>The call takes a long time</t>
   </si>
   <si>
@@ -157,9 +118,6 @@
     <t>She is adherent and doesn't need reminders</t>
   </si>
   <si>
-    <t>Partilha telefone e não acha seguro receber VMM</t>
-  </si>
-  <si>
     <t>Lack of disclosure of serostatus</t>
   </si>
   <si>
@@ -182,6 +140,90 @@
   </si>
   <si>
     <t>MM_trained</t>
+  </si>
+  <si>
+    <t>ELEGIBLE</t>
+  </si>
+  <si>
+    <t>CHILDREN</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>Inhambane</t>
+  </si>
+  <si>
+    <t>Manica</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Maputo City</t>
+  </si>
+  <si>
+    <t>Niassa</t>
+  </si>
+  <si>
+    <t>Sofala</t>
+  </si>
+  <si>
+    <t>Tete</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Cabo_Delgado</t>
+  </si>
+  <si>
+    <t>Matola</t>
+  </si>
+  <si>
+    <t>m2m</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>May-08</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>May-15</t>
+  </si>
+  <si>
+    <t>May-22</t>
+  </si>
+  <si>
+    <t>May-29</t>
+  </si>
+  <si>
+    <t>June-05</t>
+  </si>
+  <si>
+    <t>June-12</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>refusals</t>
+  </si>
+  <si>
+    <t>June-19</t>
   </si>
 </sst>
 </file>
@@ -204,12 +246,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,12 +285,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,38 +587,43 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,22 +631,22 @@
         <v>278</v>
       </c>
       <c r="B2">
-        <v>15840</v>
+        <v>16010</v>
       </c>
       <c r="C2">
-        <v>1533</v>
+        <v>1546</v>
       </c>
       <c r="D2">
-        <v>5562</v>
+        <v>5665</v>
       </c>
       <c r="E2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F2">
-        <v>6140</v>
+        <v>6250</v>
       </c>
       <c r="G2">
-        <v>5270</v>
+        <v>5403</v>
       </c>
       <c r="H2">
         <v>125</v>
@@ -582,11 +659,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>304</v>
+      </c>
+      <c r="C2" s="5">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>709</v>
+      </c>
+      <c r="C6" s="5">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2468</v>
+      </c>
+      <c r="C8" s="5">
+        <v>330</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2184</v>
+      </c>
+      <c r="C12" s="5">
+        <v>137</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,10 +876,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -669,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -725,13 +988,955 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>1656</v>
+      </c>
+      <c r="E2">
+        <v>602</v>
+      </c>
+      <c r="F2">
+        <v>4377</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>2086</v>
+      </c>
+      <c r="D3">
+        <v>1744</v>
+      </c>
+      <c r="E3">
+        <v>603</v>
+      </c>
+      <c r="F3">
+        <v>4532</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>2205</v>
+      </c>
+      <c r="D4">
+        <v>1841</v>
+      </c>
+      <c r="E4">
+        <v>636</v>
+      </c>
+      <c r="F4">
+        <v>4791</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>2265</v>
+      </c>
+      <c r="D5">
+        <v>1910</v>
+      </c>
+      <c r="E5">
+        <v>688</v>
+      </c>
+      <c r="F5">
+        <v>4975</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8">
+        <v>145</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2270</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1965</v>
+      </c>
+      <c r="E6" s="8">
+        <v>711</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5091</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="10">
+        <v>171</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2342</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="10">
+        <v>740</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5270</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12">
+        <v>190</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2382</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2079</v>
+      </c>
+      <c r="E8" s="12">
+        <v>752</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5403</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>1452</v>
+      </c>
+      <c r="D9">
+        <v>1242</v>
+      </c>
+      <c r="E9">
+        <v>280</v>
+      </c>
+      <c r="F9">
+        <v>3068</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>1452</v>
+      </c>
+      <c r="D10">
+        <v>1403</v>
+      </c>
+      <c r="E10">
+        <v>547</v>
+      </c>
+      <c r="F10">
+        <v>3496</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>2059</v>
+      </c>
+      <c r="D11">
+        <v>1403</v>
+      </c>
+      <c r="E11">
+        <v>587</v>
+      </c>
+      <c r="F11">
+        <v>4153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>2185</v>
+      </c>
+      <c r="D12">
+        <v>1498</v>
+      </c>
+      <c r="E12">
+        <v>649</v>
+      </c>
+      <c r="F12">
+        <v>4442</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="8">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2201</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1579</v>
+      </c>
+      <c r="E13" s="8">
+        <v>692</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4603</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10">
+        <v>141</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2236</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1676</v>
+      </c>
+      <c r="E14" s="10">
+        <v>720</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4773</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12">
+        <v>153</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2290</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1728</v>
+      </c>
+      <c r="E15" s="12">
+        <v>750</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4921</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>990</v>
+      </c>
+      <c r="D16">
+        <v>1387</v>
+      </c>
+      <c r="E16">
+        <v>410</v>
+      </c>
+      <c r="F16">
+        <v>2850</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>1218</v>
+      </c>
+      <c r="D17">
+        <v>1387</v>
+      </c>
+      <c r="E17">
+        <v>488</v>
+      </c>
+      <c r="F17">
+        <v>3185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>1780</v>
+      </c>
+      <c r="D18">
+        <v>1429</v>
+      </c>
+      <c r="E18">
+        <v>488</v>
+      </c>
+      <c r="F18">
+        <v>3801</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="8">
+        <v>119</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1824</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1503</v>
+      </c>
+      <c r="E19" s="8">
+        <v>625</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4071</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10">
+        <v>127</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2051</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1598</v>
+      </c>
+      <c r="E20" s="10">
+        <v>691</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4467</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="12">
+        <v>145</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2120</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1677</v>
+      </c>
+      <c r="E21" s="12">
+        <v>698</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4640</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>104</v>
+      </c>
+      <c r="D22">
+        <v>733</v>
+      </c>
+      <c r="F22">
+        <v>863</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>78</v>
+      </c>
+      <c r="C23">
+        <v>414</v>
+      </c>
+      <c r="D23">
+        <v>733</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>1325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8">
+        <v>106</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1285</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1367</v>
+      </c>
+      <c r="E24" s="8">
+        <v>286</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3044</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="10">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1853</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1409</v>
+      </c>
+      <c r="E25" s="10">
+        <v>500</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3886</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="12">
+        <v>139</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2068</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1481</v>
+      </c>
+      <c r="E26" s="12">
+        <v>653</v>
+      </c>
+      <c r="F26" s="12">
+        <v>4341</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8">
+        <v>86</v>
+      </c>
+      <c r="C31" s="8">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8">
+        <v>46</v>
+      </c>
+      <c r="E31" s="8">
+        <v>72</v>
+      </c>
+      <c r="F31" s="8">
+        <v>56</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="10">
+        <v>88</v>
+      </c>
+      <c r="C32" s="10">
+        <v>66</v>
+      </c>
+      <c r="D32" s="10">
+        <v>48</v>
+      </c>
+      <c r="E32" s="10">
+        <v>72</v>
+      </c>
+      <c r="F32" s="10">
+        <v>57</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12">
+        <v>90</v>
+      </c>
+      <c r="C33" s="12">
+        <v>68</v>
+      </c>
+      <c r="D33" s="12">
+        <v>50</v>
+      </c>
+      <c r="E33" s="12">
+        <v>72</v>
+      </c>
+      <c r="F33" s="12">
+        <v>59</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F39" si="0">SUM(B34:E34)</f>
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="8">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8">
+        <v>40</v>
+      </c>
+      <c r="D38" s="8">
+        <v>57</v>
+      </c>
+      <c r="E38" s="8">
+        <v>14</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="10">
+        <v>10</v>
+      </c>
+      <c r="C39" s="10">
+        <v>40</v>
+      </c>
+      <c r="D39" s="10">
+        <v>64</v>
+      </c>
+      <c r="E39" s="10">
+        <v>11</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="12">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12">
+        <v>40</v>
+      </c>
+      <c r="D40" s="12">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12">
+        <v>11</v>
+      </c>
+      <c r="F40" s="12">
+        <v>125</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,317 +1960,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C2">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.73183391003460208</v>
+        <v>0.94700854700854697</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="C3">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D6" si="0">C3/B3</f>
-        <v>0.98581560283687941</v>
+        <v>0.85198555956678701</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="C4">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.99040767386091122</v>
+        <v>0.99576271186440679</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="C5">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.9709443099273608</v>
+        <v>0.98936170212765961</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.22443890274314215</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>0.24516129032258063</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +2044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1098,7 +2063,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -1106,7 +2071,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -1114,7 +2079,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1122,7 +2087,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1130,7 +2095,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1138,7 +2103,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1146,7 +2111,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1154,7 +2119,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1162,7 +2127,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1170,7 +2135,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>1</v>

--- a/phone_coverage_12.xlsx
+++ b/phone_coverage_12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="weeks" sheetId="8" r:id="rId4"/>
     <sheet name="pediatric" sheetId="2" r:id="rId5"/>
     <sheet name="main" sheetId="5" r:id="rId6"/>
+    <sheet name="weekly_plan" sheetId="9" r:id="rId7"/>
+    <sheet name="global" sheetId="10" r:id="rId8"/>
+    <sheet name="global (2)" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="90">
   <si>
     <t>province</t>
   </si>
@@ -224,12 +227,90 @@
   </si>
   <si>
     <t>June-19</t>
+  </si>
+  <si>
+    <t>June-26</t>
+  </si>
+  <si>
+    <t>OutCome</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>Zambézia</t>
+  </si>
+  <si>
+    <t>m2m Moz</t>
+  </si>
+  <si>
+    <t>May 04-08</t>
+  </si>
+  <si>
+    <t>May 11-15</t>
+  </si>
+  <si>
+    <t>May 18-22</t>
+  </si>
+  <si>
+    <t>May 25-29</t>
+  </si>
+  <si>
+    <t>June 1-5</t>
+  </si>
+  <si>
+    <t>June 8-12</t>
+  </si>
+  <si>
+    <t>June 15-19</t>
+  </si>
+  <si>
+    <t>June 22-26</t>
+  </si>
+  <si>
+    <t>MM Trained</t>
+  </si>
+  <si>
+    <t>1st Support Calls</t>
+  </si>
+  <si>
+    <t>2nd Support Calls</t>
+  </si>
+  <si>
+    <t>3rd Support Calls</t>
+  </si>
+  <si>
+    <t>VMM Services</t>
+  </si>
+  <si>
+    <t>Weekly Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-consent calls </t>
+  </si>
+  <si>
+    <t>&gt;3 Support Calls</t>
+  </si>
+  <si>
+    <t>Quarterly ARV refill</t>
+  </si>
+  <si>
+    <t>July-03</t>
+  </si>
+  <si>
+    <t>June 29 - July 03</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +352,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -285,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -303,6 +396,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,25 +729,25 @@
         <v>278</v>
       </c>
       <c r="B2">
-        <v>16010</v>
+        <v>16199</v>
       </c>
       <c r="C2">
-        <v>1546</v>
+        <v>1557</v>
       </c>
       <c r="D2">
-        <v>5665</v>
+        <v>5811</v>
       </c>
       <c r="E2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F2">
-        <v>6250</v>
+        <v>6401</v>
       </c>
       <c r="G2">
-        <v>5403</v>
+        <v>5505</v>
       </c>
       <c r="H2">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -689,13 +787,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C2" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2">
-        <v>376</v>
+        <f>SUM(B2:C2)</f>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -745,13 +844,14 @@
         <v>42</v>
       </c>
       <c r="B6" s="5">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="C6" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
-        <v>755</v>
+        <f>SUM(B6:C6)</f>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,13 +873,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>2468</v>
+        <v>2521</v>
       </c>
       <c r="C8" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2">
-        <v>2798</v>
+        <f>SUM(B8:C8)</f>
+        <v>2852</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,13 +930,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <v>2184</v>
+        <v>2233</v>
       </c>
       <c r="C12" s="5">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2">
-        <v>2321</v>
+        <f>SUM(B12:C12)</f>
+        <v>2375</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>44</v>
@@ -890,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -904,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -918,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -932,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>56</v>
@@ -946,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>68</v>
@@ -960,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -974,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -990,10 +1092,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,69 +1290,69 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>94</v>
-      </c>
-      <c r="C9">
-        <v>1452</v>
-      </c>
-      <c r="D9">
-        <v>1242</v>
-      </c>
-      <c r="E9">
-        <v>280</v>
-      </c>
-      <c r="F9">
-        <v>3068</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="14">
+        <v>194</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2397</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2097</v>
+      </c>
+      <c r="E9" s="14">
+        <v>752</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5440</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
-        <v>94</v>
-      </c>
-      <c r="C10">
-        <v>1452</v>
-      </c>
-      <c r="D10">
-        <v>1403</v>
-      </c>
-      <c r="E10">
-        <v>547</v>
-      </c>
-      <c r="F10">
-        <v>3496</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
+      <c r="A10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="17">
+        <v>206</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2422</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2125</v>
+      </c>
+      <c r="E10" s="17">
+        <v>752</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5505</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>2059</v>
+        <v>1452</v>
       </c>
       <c r="D11">
-        <v>1403</v>
+        <v>1242</v>
       </c>
       <c r="E11">
-        <v>587</v>
+        <v>280</v>
       </c>
       <c r="F11">
-        <v>4153</v>
+        <v>3068</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
@@ -1257,671 +1360,947 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>2185</v>
+        <v>1452</v>
       </c>
       <c r="D12">
-        <v>1498</v>
+        <v>1403</v>
       </c>
       <c r="E12">
-        <v>649</v>
+        <v>547</v>
       </c>
       <c r="F12">
-        <v>4442</v>
+        <v>3496</v>
       </c>
       <c r="G12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>2059</v>
+      </c>
+      <c r="D13">
+        <v>1403</v>
+      </c>
+      <c r="E13">
+        <v>587</v>
+      </c>
+      <c r="F13">
+        <v>4153</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>2185</v>
+      </c>
+      <c r="D14">
+        <v>1498</v>
+      </c>
+      <c r="E14">
+        <v>649</v>
+      </c>
+      <c r="F14">
+        <v>4442</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B15" s="8">
         <v>131</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C15" s="8">
         <v>2201</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D15" s="8">
         <v>1579</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E15" s="8">
         <v>692</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F15" s="8">
         <v>4603</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B16" s="10">
         <v>141</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C16" s="10">
         <v>2236</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D16" s="10">
         <v>1676</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <v>720</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F16" s="10">
         <v>4773</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B17" s="12">
         <v>153</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C17" s="12">
         <v>2290</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D17" s="12">
         <v>1728</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E17" s="12">
         <v>750</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F17" s="12">
         <v>4921</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="14">
+        <v>175</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2318</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1799</v>
+      </c>
+      <c r="E18" s="14">
+        <v>750</v>
+      </c>
+      <c r="F18" s="14">
+        <v>5042</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="17">
+        <v>189</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2316</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1790</v>
+      </c>
+      <c r="E19" s="17">
+        <v>750</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5045</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>63</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>990</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>1387</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>410</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>2850</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>92</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>1218</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>1387</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>488</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>3185</v>
       </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>104</v>
-      </c>
-      <c r="C18">
-        <v>1780</v>
-      </c>
-      <c r="D18">
-        <v>1429</v>
-      </c>
-      <c r="E18">
-        <v>488</v>
-      </c>
-      <c r="F18">
-        <v>3801</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="8">
-        <v>119</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1824</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1503</v>
-      </c>
-      <c r="E19" s="8">
-        <v>625</v>
-      </c>
-      <c r="F19" s="8">
-        <v>4071</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="10">
-        <v>127</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2051</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1598</v>
-      </c>
-      <c r="E20" s="10">
-        <v>691</v>
-      </c>
-      <c r="F20" s="10">
-        <v>4467</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="12">
-        <v>145</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2120</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1677</v>
-      </c>
-      <c r="E21" s="12">
-        <v>698</v>
-      </c>
-      <c r="F21" s="12">
-        <v>4640</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>104</v>
+        <v>1780</v>
       </c>
       <c r="D22">
-        <v>733</v>
+        <v>1429</v>
+      </c>
+      <c r="E22">
+        <v>488</v>
       </c>
       <c r="F22">
-        <v>863</v>
+        <v>3801</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23">
-        <v>78</v>
-      </c>
-      <c r="C23">
-        <v>414</v>
-      </c>
-      <c r="D23">
-        <v>733</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>1325</v>
-      </c>
-      <c r="G23" t="s">
-        <v>61</v>
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8">
+        <v>119</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1824</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1503</v>
+      </c>
+      <c r="E23" s="8">
+        <v>625</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4071</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8">
-        <v>106</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1285</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1367</v>
-      </c>
-      <c r="E24" s="8">
-        <v>286</v>
-      </c>
-      <c r="F24" s="8">
-        <v>3044</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>61</v>
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10">
+        <v>127</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2051</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1598</v>
+      </c>
+      <c r="E24" s="10">
+        <v>691</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4467</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="10">
-        <v>124</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1853</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1409</v>
-      </c>
-      <c r="E25" s="10">
-        <v>500</v>
-      </c>
-      <c r="F25" s="10">
-        <v>3886</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>61</v>
+      <c r="A25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="12">
+        <v>145</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2120</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1677</v>
+      </c>
+      <c r="E25" s="12">
+        <v>698</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4640</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="12">
-        <v>139</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2068</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1481</v>
-      </c>
-      <c r="E26" s="12">
-        <v>653</v>
-      </c>
-      <c r="F26" s="12">
-        <v>4341</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>61</v>
+      <c r="A26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="14">
+        <v>160</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2150</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1743</v>
+      </c>
+      <c r="E26" s="14">
+        <v>698</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4751</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <v>75</v>
-      </c>
-      <c r="C27">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>71</v>
-      </c>
-      <c r="F27">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
+      <c r="A27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="17">
+        <v>176</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2157</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1758</v>
+      </c>
+      <c r="E27" s="17">
+        <v>728</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4819</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C28">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>733</v>
+      </c>
+      <c r="F28">
+        <v>863</v>
+      </c>
+      <c r="G28" t="s">
         <v>61</v>
-      </c>
-      <c r="D28">
-        <v>34</v>
-      </c>
-      <c r="E28">
-        <v>71</v>
-      </c>
-      <c r="F28">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>733</v>
       </c>
       <c r="E29">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>51</v>
+        <v>1325</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <v>82</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>45</v>
-      </c>
-      <c r="E30">
-        <v>71</v>
-      </c>
-      <c r="F30">
-        <v>54</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8">
+        <v>106</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1285</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1367</v>
+      </c>
+      <c r="E30" s="8">
+        <v>286</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3044</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="8">
-        <v>86</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10">
+        <v>124</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1853</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1409</v>
+      </c>
+      <c r="E31" s="10">
+        <v>500</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3886</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="12">
+        <v>139</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2068</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1481</v>
+      </c>
+      <c r="E32" s="12">
+        <v>653</v>
+      </c>
+      <c r="F32" s="12">
+        <v>4341</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="8">
-        <v>46</v>
-      </c>
-      <c r="E31" s="8">
-        <v>72</v>
-      </c>
-      <c r="F31" s="8">
-        <v>56</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="10">
-        <v>88</v>
-      </c>
-      <c r="C32" s="10">
-        <v>66</v>
-      </c>
-      <c r="D32" s="10">
-        <v>48</v>
-      </c>
-      <c r="E32" s="10">
-        <v>72</v>
-      </c>
-      <c r="F32" s="10">
-        <v>57</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="12">
-        <v>90</v>
-      </c>
-      <c r="C33" s="12">
-        <v>68</v>
-      </c>
-      <c r="D33" s="12">
-        <v>50</v>
-      </c>
-      <c r="E33" s="12">
-        <v>72</v>
-      </c>
-      <c r="F33" s="12">
-        <v>59</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>62</v>
+      <c r="B33" s="14">
+        <v>149</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2143</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1587</v>
+      </c>
+      <c r="E33" s="14">
+        <v>653</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4532</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>24</v>
-      </c>
-      <c r="D34">
-        <v>92</v>
-      </c>
-      <c r="E34">
-        <v>17</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F39" si="0">SUM(B34:E34)</f>
-        <v>135</v>
-      </c>
-      <c r="G34" t="s">
-        <v>63</v>
+      <c r="A34" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="17">
+        <v>174</v>
+      </c>
+      <c r="C34" s="17">
+        <v>2192</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1587</v>
+      </c>
+      <c r="E34" s="17">
+        <v>689</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4642</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B35">
+      <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>71</v>
+      </c>
+      <c r="F37">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>71</v>
+      </c>
+      <c r="F38">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="8">
+        <v>86</v>
+      </c>
+      <c r="C39" s="8">
+        <v>65</v>
+      </c>
+      <c r="D39" s="8">
+        <v>46</v>
+      </c>
+      <c r="E39" s="8">
+        <v>72</v>
+      </c>
+      <c r="F39" s="8">
+        <v>56</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="10">
+        <v>88</v>
+      </c>
+      <c r="C40" s="10">
+        <v>66</v>
+      </c>
+      <c r="D40" s="10">
+        <v>48</v>
+      </c>
+      <c r="E40" s="10">
+        <v>72</v>
+      </c>
+      <c r="F40" s="10">
+        <v>57</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="12">
+        <v>90</v>
+      </c>
+      <c r="C41" s="12">
+        <v>68</v>
+      </c>
+      <c r="D41" s="12">
+        <v>50</v>
+      </c>
+      <c r="E41" s="12">
+        <v>72</v>
+      </c>
+      <c r="F41" s="12">
+        <v>59</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="14">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14">
+        <v>68</v>
+      </c>
+      <c r="D42" s="14">
+        <v>50</v>
+      </c>
+      <c r="E42" s="14">
+        <v>72</v>
+      </c>
+      <c r="F42" s="14">
+        <v>60</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="17">
+        <v>104</v>
+      </c>
+      <c r="C43" s="17">
+        <v>76</v>
+      </c>
+      <c r="D43" s="17">
+        <v>51</v>
+      </c>
+      <c r="E43" s="17">
+        <v>72</v>
+      </c>
+      <c r="F43" s="17">
+        <v>63</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F49" si="0">SUM(B44:E44)</f>
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
         <v>40</v>
       </c>
-      <c r="D35">
+      <c r="D45">
         <v>92</v>
       </c>
-      <c r="E35">
+      <c r="E45">
         <v>17</v>
       </c>
-      <c r="F35">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C46">
         <v>40</v>
       </c>
-      <c r="D36">
+      <c r="D46">
         <v>54</v>
       </c>
-      <c r="E36">
+      <c r="E46">
         <v>18</v>
       </c>
-      <c r="F36">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C47">
         <v>40</v>
       </c>
-      <c r="D37">
+      <c r="D47">
         <v>57</v>
       </c>
-      <c r="E37">
+      <c r="E47">
         <v>18</v>
       </c>
-      <c r="F37">
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B48" s="8">
         <v>9</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C48" s="8">
         <v>40</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D48" s="8">
         <v>57</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E48" s="8">
         <v>14</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F48" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B49" s="10">
         <v>10</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C49" s="10">
         <v>40</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D49" s="10">
         <v>64</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E49" s="10">
         <v>11</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B50" s="12">
         <v>10</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C50" s="12">
         <v>40</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D50" s="12">
         <v>64</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E50" s="12">
         <v>11</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F50" s="12">
         <v>125</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G50" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="14">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17">
+        <v>4</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1936,7 +2315,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1963,14 +2342,14 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.94700854700854697</v>
+        <v>0.94745762711864412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1978,14 +2357,14 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C3">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D6" si="0">C3/B3</f>
-        <v>0.85198555956678701</v>
+        <v>0.89266547406082286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,14 +2372,14 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.99576271186440679</v>
+        <v>0.96993987975951901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,14 +2387,14 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C5">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.98936170212765961</v>
+        <v>0.99173553719008267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,14 +2402,14 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.24516129032258063</v>
+        <v>0.46250000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2144,4 +2523,1562 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46:D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="17">
+        <v>124</v>
+      </c>
+      <c r="D10" s="17">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>1012</v>
+      </c>
+      <c r="D11">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>1202</v>
+      </c>
+      <c r="D12">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>1019</v>
+      </c>
+      <c r="D13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>1220</v>
+      </c>
+      <c r="D14">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>1028</v>
+      </c>
+      <c r="D15">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1247</v>
+      </c>
+      <c r="D16">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>1295</v>
+      </c>
+      <c r="D17">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>1152</v>
+      </c>
+      <c r="D18">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1241</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>1400</v>
+      </c>
+      <c r="D20">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>1350</v>
+      </c>
+      <c r="D21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>1300</v>
+      </c>
+      <c r="D22">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>1400</v>
+      </c>
+      <c r="D23">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>1350</v>
+      </c>
+      <c r="D24">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>1300</v>
+      </c>
+      <c r="D25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>1400</v>
+      </c>
+      <c r="D26">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>1350</v>
+      </c>
+      <c r="D27">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1300</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>219</v>
+      </c>
+      <c r="D29">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>225</v>
+      </c>
+      <c r="D31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>209</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>250</v>
+      </c>
+      <c r="D35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>208</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="17">
+        <v>197</v>
+      </c>
+      <c r="D37" s="17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>2730</v>
+      </c>
+      <c r="D38">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>2846</v>
+      </c>
+      <c r="D39">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <v>2656</v>
+      </c>
+      <c r="D40">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>2812</v>
+      </c>
+      <c r="D41">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <v>2684</v>
+      </c>
+      <c r="D42">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>2816</v>
+      </c>
+      <c r="D43">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>3039</v>
+      </c>
+      <c r="D44">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>2810</v>
+      </c>
+      <c r="D45">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2862</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>278</v>
+      </c>
+      <c r="D2">
+        <v>278</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>6222</v>
+      </c>
+      <c r="D3">
+        <v>5505</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E17" si="0">D3/C3</f>
+        <v>0.88476374156219861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>5465</v>
+      </c>
+      <c r="D4">
+        <v>5045</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92314730100640441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>5045</v>
+      </c>
+      <c r="D5">
+        <v>4819</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95520317145688804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>4819</v>
+      </c>
+      <c r="D6">
+        <v>4642</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96327038804731269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>4642</v>
+      </c>
+      <c r="D7">
+        <v>4864</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.047824213700991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>15223</v>
+      </c>
+      <c r="D8">
+        <v>9644</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6335150758720357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2730</v>
+      </c>
+      <c r="D9">
+        <v>1966</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72014652014652014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>2846</v>
+      </c>
+      <c r="D10">
+        <v>1483</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5210822206605763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>2656</v>
+      </c>
+      <c r="D11">
+        <v>2009</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75640060240963858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>2812</v>
+      </c>
+      <c r="D12">
+        <v>2177</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77418207681365581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>2684</v>
+      </c>
+      <c r="D13">
+        <v>2076</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77347242921013415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>2816</v>
+      </c>
+      <c r="D14">
+        <v>2411</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85617897727272729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>3039</v>
+      </c>
+      <c r="D15">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7897334649555775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>2810</v>
+      </c>
+      <c r="D16">
+        <v>1984</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70604982206405698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>2862</v>
+      </c>
+      <c r="D17">
+        <v>2503</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87456324248777084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>278</v>
+      </c>
+      <c r="D2">
+        <v>278</v>
+      </c>
+      <c r="E2" s="15">
+        <f>C2/D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>5440</v>
+      </c>
+      <c r="D3">
+        <v>6904</v>
+      </c>
+      <c r="E3" s="15">
+        <f>C3/D3</f>
+        <v>0.78794901506373116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>5042</v>
+      </c>
+      <c r="D4">
+        <v>5361</v>
+      </c>
+      <c r="E4" s="15">
+        <f>C4/D4</f>
+        <v>0.94049617608655101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>4751</v>
+      </c>
+      <c r="D5">
+        <v>5042</v>
+      </c>
+      <c r="E5" s="15">
+        <f>C5/D5</f>
+        <v>0.9422848076160254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>4532</v>
+      </c>
+      <c r="D6">
+        <v>4751</v>
+      </c>
+      <c r="E6" s="15">
+        <f>C6/D6</f>
+        <v>0.95390444117027995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>4291</v>
+      </c>
+      <c r="D7">
+        <v>4532</v>
+      </c>
+      <c r="E7" s="15">
+        <f>C7/D7</f>
+        <v>0.9468225948808473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>9220</v>
+      </c>
+      <c r="D8">
+        <v>15495</v>
+      </c>
+      <c r="E8" s="15">
+        <f>C8/D8</f>
+        <v>0.59503065505001618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1966</v>
+      </c>
+      <c r="D9">
+        <v>2730</v>
+      </c>
+      <c r="E9" s="15">
+        <f>C9/D9</f>
+        <v>0.72014652014652014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>1483</v>
+      </c>
+      <c r="D10">
+        <v>2846</v>
+      </c>
+      <c r="E10" s="15">
+        <f>C10/D10</f>
+        <v>0.5210822206605763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>2009</v>
+      </c>
+      <c r="D11">
+        <v>2656</v>
+      </c>
+      <c r="E11" s="15">
+        <f>C11/D11</f>
+        <v>0.75640060240963858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>2177</v>
+      </c>
+      <c r="D12">
+        <v>2812</v>
+      </c>
+      <c r="E12" s="15">
+        <f>C12/D12</f>
+        <v>0.77418207681365581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>2076</v>
+      </c>
+      <c r="D13">
+        <v>2684</v>
+      </c>
+      <c r="E13" s="15">
+        <f>C13/D13</f>
+        <v>0.77347242921013415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>2411</v>
+      </c>
+      <c r="D14">
+        <v>2816</v>
+      </c>
+      <c r="E14" s="15">
+        <f>C14/D14</f>
+        <v>0.85617897727272729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>2400</v>
+      </c>
+      <c r="D15">
+        <v>3039</v>
+      </c>
+      <c r="E15" s="15">
+        <f>C15/D15</f>
+        <v>0.7897334649555775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>1984</v>
+      </c>
+      <c r="D16">
+        <v>2810</v>
+      </c>
+      <c r="E16" s="15">
+        <f>C16/D16</f>
+        <v>0.70604982206405698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>2503</v>
+      </c>
+      <c r="D17">
+        <v>2862</v>
+      </c>
+      <c r="E17" s="15">
+        <f>C17/D17</f>
+        <v>0.87456324248777084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>278</v>
+      </c>
+      <c r="G24">
+        <v>6904</v>
+      </c>
+      <c r="H24">
+        <v>5361</v>
+      </c>
+      <c r="I24">
+        <v>5042</v>
+      </c>
+      <c r="J24">
+        <v>4751</v>
+      </c>
+      <c r="K24">
+        <v>4532</v>
+      </c>
+      <c r="L24">
+        <v>15495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>278</v>
+      </c>
+      <c r="G25">
+        <v>5440</v>
+      </c>
+      <c r="H25">
+        <v>5042</v>
+      </c>
+      <c r="I25">
+        <v>4751</v>
+      </c>
+      <c r="J25">
+        <v>4532</v>
+      </c>
+      <c r="K25">
+        <v>4291</v>
+      </c>
+      <c r="L25">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <f>E25/E24</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:L26" si="0">G25/G24</f>
+        <v>0.78794901506373116</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.94049617608655101</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.9422848076160254</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.95390444117027995</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0.9468225948808473</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0.59503065505001618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2730</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>2846</v>
+      </c>
+      <c r="G30">
+        <v>2656</v>
+      </c>
+      <c r="H30">
+        <v>2812</v>
+      </c>
+      <c r="I30">
+        <v>2684</v>
+      </c>
+      <c r="J30">
+        <v>2816</v>
+      </c>
+      <c r="K30">
+        <v>3039</v>
+      </c>
+      <c r="L30">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1966</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>1483</v>
+      </c>
+      <c r="G31">
+        <v>2009</v>
+      </c>
+      <c r="H31">
+        <v>2177</v>
+      </c>
+      <c r="I31">
+        <v>2076</v>
+      </c>
+      <c r="J31">
+        <v>2411</v>
+      </c>
+      <c r="K31">
+        <v>2400</v>
+      </c>
+      <c r="L31">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="15">
+        <f>C31/C30</f>
+        <v>0.72014652014652014</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="15">
+        <f>E31/E30</f>
+        <v>0.5210822206605763</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" ref="G32:L32" si="1">G31/G30</f>
+        <v>0.75640060240963858</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.77418207681365581</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.77347242921013415</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.85617897727272729</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.7897334649555775</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.70604982206405698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/phone_coverage_12.xlsx
+++ b/phone_coverage_12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
   <si>
     <t>province</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>July-10</t>
+  </si>
+  <si>
+    <t>July 06 - 10</t>
   </si>
 </sst>
 </file>
@@ -327,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +370,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -401,6 +413,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +699,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,25 +743,25 @@
         <v>278</v>
       </c>
       <c r="B2">
-        <v>16199</v>
+        <v>16390</v>
       </c>
       <c r="C2">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="D2">
-        <v>5811</v>
+        <v>5966</v>
       </c>
       <c r="E2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F2">
-        <v>6401</v>
+        <v>6563</v>
       </c>
       <c r="G2">
-        <v>5505</v>
+        <v>5643</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +774,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,14 +801,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C2" s="5">
         <v>73</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:C2)</f>
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -844,14 +858,14 @@
         <v>42</v>
       </c>
       <c r="B6" s="5">
-        <v>731</v>
+        <v>777</v>
       </c>
       <c r="C6" s="5">
         <v>44</v>
       </c>
       <c r="D6" s="2">
         <f>SUM(B6:C6)</f>
-        <v>775</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -873,14 +887,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>2521</v>
+        <v>2568</v>
       </c>
       <c r="C8" s="5">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(B8:C8)</f>
-        <v>2852</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -930,14 +944,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <v>2233</v>
+        <v>2282</v>
       </c>
       <c r="C12" s="5">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(B12:C12)</f>
-        <v>2375</v>
+        <v>2429</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>44</v>
@@ -1009,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1020,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>83</v>
@@ -1034,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>56</v>
@@ -1065,7 +1079,7 @@
         <v>74</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1076,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -1092,11 +1106,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,31 +1350,31 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11">
-        <v>94</v>
-      </c>
-      <c r="C11">
-        <v>1452</v>
-      </c>
-      <c r="D11">
-        <v>1242</v>
-      </c>
-      <c r="E11">
-        <v>280</v>
-      </c>
-      <c r="F11">
-        <v>3068</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
+      <c r="A11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="19">
+        <v>206</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2461</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2178</v>
+      </c>
+      <c r="E11" s="19">
+        <v>798</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5643</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>94</v>
@@ -1369,13 +1383,13 @@
         <v>1452</v>
       </c>
       <c r="D12">
-        <v>1403</v>
+        <v>1242</v>
       </c>
       <c r="E12">
-        <v>547</v>
+        <v>280</v>
       </c>
       <c r="F12">
-        <v>3496</v>
+        <v>3068</v>
       </c>
       <c r="G12" t="s">
         <v>59</v>
@@ -1383,22 +1397,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C13">
-        <v>2059</v>
+        <v>1452</v>
       </c>
       <c r="D13">
         <v>1403</v>
       </c>
       <c r="E13">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="F13">
-        <v>4153</v>
+        <v>3496</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -1406,901 +1420,1043 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>2185</v>
+        <v>2059</v>
       </c>
       <c r="D14">
-        <v>1498</v>
+        <v>1403</v>
       </c>
       <c r="E14">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="F14">
-        <v>4442</v>
+        <v>4153</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>2185</v>
+      </c>
+      <c r="D15">
+        <v>1498</v>
+      </c>
+      <c r="E15">
+        <v>649</v>
+      </c>
+      <c r="F15">
+        <v>4442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>131</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>2201</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>1579</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>692</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>4603</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="10">
         <v>141</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="10">
         <v>2236</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>1676</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>720</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>4773</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B18" s="12">
         <v>153</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C18" s="12">
         <v>2290</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>1728</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>750</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>4921</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>175</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="14">
         <v>2318</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>1799</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>750</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>5042</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B20" s="17">
         <v>189</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C20" s="17">
         <v>2316</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>1790</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>750</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>5045</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>990</v>
-      </c>
-      <c r="D20">
-        <v>1387</v>
-      </c>
-      <c r="E20">
-        <v>410</v>
-      </c>
-      <c r="F20">
-        <v>2850</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>92</v>
-      </c>
-      <c r="C21">
-        <v>1218</v>
-      </c>
-      <c r="D21">
-        <v>1387</v>
-      </c>
-      <c r="E21">
-        <v>488</v>
-      </c>
-      <c r="F21">
-        <v>3185</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
+      <c r="A21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="19">
+        <v>200</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2371</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1904</v>
+      </c>
+      <c r="E21" s="19">
+        <v>777</v>
+      </c>
+      <c r="F21" s="19">
+        <v>5252</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>1780</v>
+        <v>990</v>
       </c>
       <c r="D22">
-        <v>1429</v>
+        <v>1387</v>
       </c>
       <c r="E22">
-        <v>488</v>
+        <v>410</v>
       </c>
       <c r="F22">
-        <v>3801</v>
+        <v>2850</v>
       </c>
       <c r="G22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <v>1218</v>
+      </c>
+      <c r="D23">
+        <v>1387</v>
+      </c>
+      <c r="E23">
+        <v>488</v>
+      </c>
+      <c r="F23">
+        <v>3185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24">
+        <v>1780</v>
+      </c>
+      <c r="D24">
+        <v>1429</v>
+      </c>
+      <c r="E24">
+        <v>488</v>
+      </c>
+      <c r="F24">
+        <v>3801</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B25" s="8">
         <v>119</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C25" s="8">
         <v>1824</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D25" s="8">
         <v>1503</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>625</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F25" s="8">
         <v>4071</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B26" s="10">
         <v>127</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C26" s="10">
         <v>2051</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D26" s="10">
         <v>1598</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E26" s="10">
         <v>691</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F26" s="10">
         <v>4467</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B27" s="12">
         <v>145</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C27" s="12">
         <v>2120</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D27" s="12">
         <v>1677</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E27" s="12">
         <v>698</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F27" s="12">
         <v>4640</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B28" s="14">
         <v>160</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C28" s="14">
         <v>2150</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D28" s="14">
         <v>1743</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E28" s="14">
         <v>698</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F28" s="14">
         <v>4751</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G28" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B29" s="17">
         <v>176</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C29" s="17">
         <v>2157</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="17">
         <v>1758</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E29" s="17">
         <v>728</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F29" s="17">
         <v>4819</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="19">
+        <v>198</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2313</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1849</v>
+      </c>
+      <c r="E30" s="19">
+        <v>738</v>
+      </c>
+      <c r="F30" s="19">
+        <v>5098</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C31">
         <v>104</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>733</v>
       </c>
-      <c r="F28">
+      <c r="F31">
         <v>863</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>78</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>414</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>733</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>100</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>1325</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B33" s="8">
         <v>106</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C33" s="8">
         <v>1285</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D33" s="8">
         <v>1367</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E33" s="8">
         <v>286</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F33" s="8">
         <v>3044</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B34" s="10">
         <v>124</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C34" s="10">
         <v>1853</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D34" s="10">
         <v>1409</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E34" s="10">
         <v>500</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F34" s="10">
         <v>3886</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B35" s="12">
         <v>139</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C35" s="12">
         <v>2068</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D35" s="12">
         <v>1481</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E35" s="12">
         <v>653</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F35" s="12">
         <v>4341</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B36" s="14">
         <v>149</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C36" s="14">
         <v>2143</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D36" s="14">
         <v>1587</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E36" s="14">
         <v>653</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F36" s="14">
         <v>4532</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G36" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B37" s="17">
         <v>174</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C37" s="17">
         <v>2192</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D37" s="17">
         <v>1587</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E37" s="17">
         <v>689</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F37" s="17">
         <v>4642</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="19">
+        <v>186</v>
+      </c>
+      <c r="C38" s="19">
+        <v>2313</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1814</v>
+      </c>
+      <c r="E38" s="19">
+        <v>711</v>
+      </c>
+      <c r="F38" s="19">
+        <v>5024</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B35">
+      <c r="B39">
         <v>75</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>62</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>27</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>71</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>44</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
+      <c r="B40">
         <v>80</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <v>61</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>34</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>71</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>47</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>80</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>63</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>40</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>71</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>51</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>82</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>63</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>45</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>71</v>
       </c>
-      <c r="F38">
+      <c r="F42">
         <v>54</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B43" s="8">
         <v>86</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C43" s="8">
         <v>65</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D43" s="8">
         <v>46</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E43" s="8">
         <v>72</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F43" s="8">
         <v>56</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B44" s="10">
         <v>88</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C44" s="10">
         <v>66</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D44" s="10">
         <v>48</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E44" s="10">
         <v>72</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F44" s="10">
         <v>57</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B45" s="12">
         <v>90</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C45" s="12">
         <v>68</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D45" s="12">
         <v>50</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E45" s="12">
         <v>72</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F45" s="12">
         <v>59</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B46" s="14">
         <v>92</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C46" s="14">
         <v>68</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D46" s="14">
         <v>50</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E46" s="14">
         <v>72</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F46" s="14">
         <v>60</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G46" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B47" s="17">
         <v>104</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C47" s="17">
         <v>76</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D47" s="17">
         <v>51</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E47" s="17">
         <v>72</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F47" s="17">
         <v>63</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="19">
+        <v>117</v>
+      </c>
+      <c r="C48" s="19">
+        <v>81</v>
+      </c>
+      <c r="D48" s="19">
         <v>52</v>
       </c>
-      <c r="B44">
+      <c r="E48" s="19">
+        <v>90</v>
+      </c>
+      <c r="F48" s="19">
+        <v>67</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F58" si="0">SUM(B49:E49)</f>
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3</v>
+      </c>
+      <c r="D54" s="10">
+        <v>7</v>
+      </c>
+      <c r="E54" s="10">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>24</v>
-      </c>
-      <c r="D44">
-        <v>92</v>
-      </c>
-      <c r="E44">
-        <v>17</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44:F49" si="0">SUM(B44:E44)</f>
-        <v>135</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F54" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12">
         <v>2</v>
       </c>
-      <c r="C45">
-        <v>40</v>
-      </c>
-      <c r="D45">
-        <v>92</v>
-      </c>
-      <c r="E45">
-        <v>17</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D55" s="12">
+        <v>2</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <f>SUM(B55:E55)</f>
+        <v>5</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-      <c r="D46">
-        <v>54</v>
-      </c>
-      <c r="E46">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="G46" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="14">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1</v>
+      </c>
+      <c r="F56" s="14">
+        <f>SUM(B56:E56)</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>40</v>
-      </c>
-      <c r="D47">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="G47" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="17">
+        <v>0</v>
+      </c>
+      <c r="C57" s="17">
+        <v>5</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
+        <f>SUM(B57:E57)</f>
+        <v>6</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="8">
-        <v>9</v>
-      </c>
-      <c r="C48" s="8">
-        <v>40</v>
-      </c>
-      <c r="D48" s="8">
-        <v>57</v>
-      </c>
-      <c r="E48" s="8">
-        <v>14</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="10">
-        <v>10</v>
-      </c>
-      <c r="C49" s="10">
-        <v>40</v>
-      </c>
-      <c r="D49" s="10">
-        <v>64</v>
-      </c>
-      <c r="E49" s="10">
-        <v>11</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="12">
-        <v>10</v>
-      </c>
-      <c r="C50" s="12">
-        <v>40</v>
-      </c>
-      <c r="D50" s="12">
-        <v>64</v>
-      </c>
-      <c r="E50" s="12">
-        <v>11</v>
-      </c>
-      <c r="F50" s="12">
-        <v>125</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="19">
         <v>0</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="19">
+        <v>2</v>
+      </c>
+      <c r="E58" s="19">
         <v>0</v>
       </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="17">
-        <v>0</v>
-      </c>
-      <c r="C52" s="17">
+      <c r="F58" s="19">
+        <f>SUM(B58:E58)</f>
         <v>3</v>
       </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="E52" s="17">
-        <v>0</v>
-      </c>
-      <c r="F52" s="17">
-        <v>4</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="G58" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2315,7 +2471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,14 +2498,14 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D2" s="1">
         <f>C2/B2</f>
-        <v>0.94745762711864412</v>
+        <v>0.93969849246231152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2357,14 +2513,14 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C3">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D6" si="0">C3/B3</f>
-        <v>0.89266547406082286</v>
+        <v>0.95721925133689845</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,14 +2528,14 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="C4">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.96993987975951901</v>
+        <v>0.97020484171322163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,14 +2543,14 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="C5">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.99173553719008267</v>
+        <v>0.95969289827255277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,14 +2558,14 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C6">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.46250000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2527,13 +2683,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46:D46"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,17 +2839,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>1012</v>
-      </c>
-      <c r="D11">
-        <v>860</v>
+      <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="10">
+        <v>123</v>
+      </c>
+      <c r="D11" s="10">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>1202</v>
+        <v>1012</v>
       </c>
       <c r="D12">
-        <v>1002</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,13 +2871,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13">
-        <v>1019</v>
+        <v>1202</v>
       </c>
       <c r="D13">
-        <v>1016</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,13 +2885,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>1220</v>
+        <v>1019</v>
       </c>
       <c r="D14">
-        <v>1099</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,13 +2899,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>1028</v>
+        <v>1220</v>
       </c>
       <c r="D15">
-        <v>1025</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>1247</v>
+        <v>1028</v>
       </c>
       <c r="D16">
-        <v>1238</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,13 +2927,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>1295</v>
+        <v>1247</v>
       </c>
       <c r="D17">
-        <v>1211</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,55 +2941,55 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>1295</v>
+      </c>
+      <c r="D18">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1152</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>915</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C20" s="17">
         <v>1241</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>1199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>1400</v>
-      </c>
-      <c r="D20">
-        <v>814</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21">
-        <v>1350</v>
-      </c>
-      <c r="D21">
-        <v>250</v>
+      <c r="A21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1298</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,13 +2997,13 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D22">
-        <v>860</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,13 +3011,13 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="D23">
-        <v>916</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,13 +3025,13 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="D24">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,13 +3039,13 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D25">
-        <v>960</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,13 +3053,13 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="D26">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,69 +3067,69 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="D27">
-        <v>769</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="17">
-        <v>1300</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1008</v>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>1400</v>
+      </c>
+      <c r="D28">
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C29">
-        <v>219</v>
+        <v>1350</v>
       </c>
       <c r="D29">
-        <v>198</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
-      </c>
-      <c r="D30">
-        <v>168</v>
+      <c r="A30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1300</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1008</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31">
-        <v>225</v>
-      </c>
-      <c r="D31">
+      <c r="A31" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1350</v>
+      </c>
+      <c r="D31" s="10">
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,13 +3137,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="D32">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,13 +3151,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D33">
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,13 +3165,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D34">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,13 +3179,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>218</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,83 +3193,83 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D36">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="17">
-        <v>197</v>
-      </c>
-      <c r="D37" s="17">
-        <v>172</v>
+      <c r="D37">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C38">
-        <v>2730</v>
+        <v>250</v>
       </c>
       <c r="D38">
-        <v>1966</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>2846</v>
+        <v>208</v>
       </c>
       <c r="D39">
-        <v>1483</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40">
-        <v>2656</v>
-      </c>
-      <c r="D40">
-        <v>2009</v>
+      <c r="A40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="17">
+        <v>197</v>
+      </c>
+      <c r="D40" s="17">
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41">
-        <v>2812</v>
-      </c>
-      <c r="D41">
-        <v>2177</v>
+      <c r="A41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="10">
+        <v>216</v>
+      </c>
+      <c r="D41" s="10">
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,13 +3277,13 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>2684</v>
+        <v>2730</v>
       </c>
       <c r="D42">
-        <v>2076</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,13 +3291,13 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43">
-        <v>2816</v>
+        <v>2846</v>
       </c>
       <c r="D43">
-        <v>2411</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3149,13 +3305,13 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44">
-        <v>3039</v>
+        <v>2656</v>
       </c>
       <c r="D44">
-        <v>2400</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,27 +3319,97 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>2812</v>
+      </c>
+      <c r="D45">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>2684</v>
+      </c>
+      <c r="D46">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>2816</v>
+      </c>
+      <c r="D47">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>3039</v>
+      </c>
+      <c r="D48">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="C45">
+      <c r="C49">
         <v>2810</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <v>1984</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B50" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C50" s="17">
         <v>2862</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D50" s="17">
         <v>2503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2987</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2516</v>
       </c>
     </row>
   </sheetData>
@@ -3195,11 +3421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,14 +3476,14 @@
         <v>84</v>
       </c>
       <c r="C3">
-        <v>6222</v>
+        <v>6563</v>
       </c>
       <c r="D3">
-        <v>5505</v>
+        <v>5643</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="0">D3/C3</f>
-        <v>0.88476374156219861</v>
+        <f t="shared" ref="E3:E18" si="0">D3/C3</f>
+        <v>0.85982020417492</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3268,14 +3494,14 @@
         <v>79</v>
       </c>
       <c r="C4">
-        <v>5465</v>
+        <v>5643</v>
       </c>
       <c r="D4">
-        <v>5045</v>
+        <v>5252</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.92314730100640441</v>
+        <v>0.93071061492114127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3286,14 +3512,14 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>5045</v>
+        <v>5252</v>
       </c>
       <c r="D5">
-        <v>4819</v>
+        <v>5098</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.95520317145688804</v>
+        <v>0.97067783701447063</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3304,14 +3530,14 @@
         <v>81</v>
       </c>
       <c r="C6">
-        <v>4819</v>
+        <v>5098</v>
       </c>
       <c r="D6">
-        <v>4642</v>
+        <v>5024</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.96327038804731269</v>
+        <v>0.98548450372695173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3322,14 +3548,14 @@
         <v>85</v>
       </c>
       <c r="C7">
-        <v>4642</v>
+        <v>5024</v>
       </c>
       <c r="D7">
-        <v>4864</v>
+        <v>6304</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1.047824213700991</v>
+        <v>1.2547770700636942</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3343,11 +3569,11 @@
         <v>15223</v>
       </c>
       <c r="D8">
-        <v>9644</v>
+        <v>10169</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0.6335150758720357</v>
+        <v>0.66800236484267228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,6 +3736,24 @@
       <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>0.87456324248777084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2987</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2516</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84231670572480755</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3527,13 +3771,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3572,7 +3816,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="15">
-        <f>C2/D2</f>
+        <f t="shared" ref="E2:E17" si="0">C2/D2</f>
         <v>1</v>
       </c>
     </row>
@@ -3590,7 +3834,7 @@
         <v>6904</v>
       </c>
       <c r="E3" s="15">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.78794901506373116</v>
       </c>
     </row>
@@ -3608,7 +3852,7 @@
         <v>5361</v>
       </c>
       <c r="E4" s="15">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.94049617608655101</v>
       </c>
     </row>
@@ -3626,7 +3870,7 @@
         <v>5042</v>
       </c>
       <c r="E5" s="15">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.9422848076160254</v>
       </c>
     </row>
@@ -3644,7 +3888,7 @@
         <v>4751</v>
       </c>
       <c r="E6" s="15">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.95390444117027995</v>
       </c>
     </row>
@@ -3662,7 +3906,7 @@
         <v>4532</v>
       </c>
       <c r="E7" s="15">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.9468225948808473</v>
       </c>
     </row>
@@ -3680,7 +3924,7 @@
         <v>15495</v>
       </c>
       <c r="E8" s="15">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.59503065505001618</v>
       </c>
     </row>
@@ -3698,7 +3942,7 @@
         <v>2730</v>
       </c>
       <c r="E9" s="15">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.72014652014652014</v>
       </c>
     </row>
@@ -3716,7 +3960,7 @@
         <v>2846</v>
       </c>
       <c r="E10" s="15">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.5210822206605763</v>
       </c>
     </row>
@@ -3734,7 +3978,7 @@
         <v>2656</v>
       </c>
       <c r="E11" s="15">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.75640060240963858</v>
       </c>
     </row>
@@ -3752,7 +3996,7 @@
         <v>2812</v>
       </c>
       <c r="E12" s="15">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.77418207681365581</v>
       </c>
     </row>
@@ -3770,7 +4014,7 @@
         <v>2684</v>
       </c>
       <c r="E13" s="15">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.77347242921013415</v>
       </c>
     </row>
@@ -3788,7 +4032,7 @@
         <v>2816</v>
       </c>
       <c r="E14" s="15">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.85617897727272729</v>
       </c>
     </row>
@@ -3806,7 +4050,7 @@
         <v>3039</v>
       </c>
       <c r="E15" s="15">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.7897334649555775</v>
       </c>
     </row>
@@ -3824,7 +4068,7 @@
         <v>2810</v>
       </c>
       <c r="E16" s="15">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.70604982206405698</v>
       </c>
     </row>
@@ -3842,7 +4086,7 @@
         <v>2862</v>
       </c>
       <c r="E17" s="15">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.87456324248777084</v>
       </c>
     </row>
@@ -3933,27 +4177,27 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:L26" si="0">G25/G24</f>
+        <f t="shared" ref="G26:L26" si="1">G25/G24</f>
         <v>0.78794901506373116</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94049617608655101</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9422848076160254</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95390444117027995</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9468225948808473</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59503065505001618</v>
       </c>
     </row>
@@ -4054,28 +4298,264 @@
         <v>0.5210822206605763</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ref="G32:L32" si="1">G31/G30</f>
+        <f t="shared" ref="G32:L32" si="2">G31/G30</f>
         <v>0.75640060240963858</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77418207681365581</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77347242921013415</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85617897727272729</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7897334649555775</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70604982206405698</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>92</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J41" si="3">SUM(F36:I36)</f>
+        <v>135</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>92</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>54</v>
+      </c>
+      <c r="I38">
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="K38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="8">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8">
+        <v>40</v>
+      </c>
+      <c r="H40" s="8">
+        <v>57</v>
+      </c>
+      <c r="I40" s="8">
+        <v>14</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="10">
+        <v>10</v>
+      </c>
+      <c r="G41" s="10">
+        <v>40</v>
+      </c>
+      <c r="H41" s="10">
+        <v>64</v>
+      </c>
+      <c r="I41" s="10">
+        <v>11</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="12">
+        <v>10</v>
+      </c>
+      <c r="G42" s="12">
+        <v>40</v>
+      </c>
+      <c r="H42" s="12">
+        <v>64</v>
+      </c>
+      <c r="I42" s="12">
+        <v>11</v>
+      </c>
+      <c r="J42" s="12">
+        <v>125</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>3</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>4</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>3</v>
+      </c>
+      <c r="H45" s="19">
+        <v>2</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <v>5</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
